--- a/data_oil_mod.xlsx
+++ b/data_oil_mod.xlsx
@@ -866,11 +866,11 @@
         </is>
       </c>
       <c r="G3" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>BY2-L</t>
+          <t>BY3-L</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
@@ -880,56 +880,56 @@
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>09:03:00</t>
+          <t>07:28:00</t>
         </is>
       </c>
       <c r="K3" t="n">
-        <v>19.8</v>
+        <v>19.5</v>
       </c>
       <c r="L3" t="n">
         <v>32.1</v>
       </c>
       <c r="M3" t="n">
-        <v>8.42</v>
+        <v>8.09</v>
       </c>
       <c r="N3" t="n">
-        <v>2.284421122366374</v>
+        <v>2.314513663859319</v>
       </c>
       <c r="O3" t="n">
-        <v>19.4</v>
+        <v>28.3</v>
       </c>
       <c r="P3" t="n">
-        <v>-3.912023005428146</v>
+        <v>-3.506557897319982</v>
       </c>
       <c r="Q3" t="n">
-        <v>-0.7765287894989963</v>
+        <v>-0.7550225842780328</v>
       </c>
       <c r="R3" t="n">
-        <v>-3.218875824868201</v>
+        <v>-2.207274913189721</v>
       </c>
       <c r="S3" t="n">
-        <v>-1.546463113272712</v>
+        <v>-1.214023140179437</v>
       </c>
       <c r="T3" t="n">
-        <v>3.686376323895818</v>
+        <v>4.036008985209137</v>
       </c>
       <c r="U3" t="n">
         <v>0.0001</v>
       </c>
       <c r="V3" t="n">
-        <v>4.016666667</v>
+        <v>0.08333333333</v>
       </c>
       <c r="W3" t="n">
-        <v>0.1881917411588641</v>
+        <v>0.001000000166666742</v>
       </c>
       <c r="X3" t="n">
-        <v>0.08176113144130319</v>
+        <v>0.04087701630766025</v>
       </c>
       <c r="Y3" t="n">
-        <v>0.4739807667659426</v>
+        <v>0.5216682692047035</v>
       </c>
       <c r="Z3" t="n">
-        <v>0.2474670631704478</v>
+        <v>0.2137561324724348</v>
       </c>
       <c r="AA3" t="n">
         <v>-3.01593498087151</v>
@@ -938,22 +938,22 @@
         <v>-1.660731206821651</v>
       </c>
       <c r="AC3" t="n">
-        <v>2.975529566236472</v>
+        <v>3.081909969795043</v>
       </c>
       <c r="AD3" t="n">
-        <v>3.214867803470662</v>
+        <v>3.321432413193293</v>
       </c>
       <c r="AE3" t="n">
-        <v>3.190476350346503</v>
+        <v>3.407841924380824</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.624668592163159</v>
+        <v>2.674148649426529</v>
       </c>
       <c r="AG3" t="n">
-        <v>4.61512051684126</v>
+        <v>4.762173934797756</v>
       </c>
       <c r="AH3" t="n">
-        <v>2.222459048514761</v>
+        <v>2.301584592660462</v>
       </c>
       <c r="AI3" t="n">
         <v>0.001000000166666742</v>
@@ -1028,11 +1028,11 @@
         </is>
       </c>
       <c r="G4" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>BY3-L</t>
+          <t>BY2-L</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
@@ -1042,56 +1042,56 @@
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>07:28:00</t>
+          <t>09:03:00</t>
         </is>
       </c>
       <c r="K4" t="n">
-        <v>19.5</v>
+        <v>19.8</v>
       </c>
       <c r="L4" t="n">
         <v>32.1</v>
       </c>
       <c r="M4" t="n">
-        <v>8.09</v>
+        <v>8.42</v>
       </c>
       <c r="N4" t="n">
-        <v>2.314513663859319</v>
+        <v>2.284421122366374</v>
       </c>
       <c r="O4" t="n">
-        <v>28.3</v>
+        <v>19.4</v>
       </c>
       <c r="P4" t="n">
-        <v>-3.506557897319982</v>
+        <v>-3.912023005428146</v>
       </c>
       <c r="Q4" t="n">
-        <v>-0.7550225842780328</v>
+        <v>-0.7765287894989963</v>
       </c>
       <c r="R4" t="n">
-        <v>-2.207274913189721</v>
+        <v>-3.218875824868201</v>
       </c>
       <c r="S4" t="n">
-        <v>-1.214023140179437</v>
+        <v>-1.546463113272712</v>
       </c>
       <c r="T4" t="n">
-        <v>4.036008985209137</v>
+        <v>3.686376323895818</v>
       </c>
       <c r="U4" t="n">
         <v>0.0001</v>
       </c>
       <c r="V4" t="n">
-        <v>0.08333333333</v>
+        <v>4.016666667</v>
       </c>
       <c r="W4" t="n">
-        <v>0.001000000166666742</v>
+        <v>0.1881917411588641</v>
       </c>
       <c r="X4" t="n">
-        <v>0.04087701630766025</v>
+        <v>0.08176113144130319</v>
       </c>
       <c r="Y4" t="n">
-        <v>0.5216682692047035</v>
+        <v>0.4739807667659426</v>
       </c>
       <c r="Z4" t="n">
-        <v>0.2137561324724348</v>
+        <v>0.2474670631704478</v>
       </c>
       <c r="AA4" t="n">
         <v>-3.01593498087151</v>
@@ -1100,22 +1100,22 @@
         <v>-1.660731206821651</v>
       </c>
       <c r="AC4" t="n">
-        <v>3.081909969795043</v>
+        <v>2.975529566236472</v>
       </c>
       <c r="AD4" t="n">
-        <v>3.321432413193293</v>
+        <v>3.214867803470662</v>
       </c>
       <c r="AE4" t="n">
-        <v>3.407841924380824</v>
+        <v>3.190476350346503</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.674148649426529</v>
+        <v>2.624668592163159</v>
       </c>
       <c r="AG4" t="n">
-        <v>4.762173934797756</v>
+        <v>4.61512051684126</v>
       </c>
       <c r="AH4" t="n">
-        <v>2.301584592660462</v>
+        <v>2.222459048514761</v>
       </c>
       <c r="AI4" t="n">
         <v>0.001000000166666742</v>
@@ -18551,7 +18551,7 @@
         <v>6.3</v>
       </c>
       <c r="P112" t="n">
-        <v>-9.210340371976182</v>
+        <v>-4.605170185988091</v>
       </c>
       <c r="Q112" t="n">
         <v>-4.199705077879927</v>
